--- a/TestData/Delete.xlsx
+++ b/TestData/Delete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9AB567-B535-4768-82B3-A5DC382BD50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC1EA44-F942-48FC-9BA6-FD1B5EC60EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17352" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delete" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>${name}</t>
   </si>
   <si>
-    <t>FName MName</t>
+    <t>FName Mname LName</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/Delete.xlsx
+++ b/TestData/Delete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC1EA44-F942-48FC-9BA6-FD1B5EC60EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9AB567-B535-4768-82B3-A5DC382BD50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17352" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delete" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>${name}</t>
   </si>
   <si>
-    <t>FName Mname LName</t>
+    <t>FName MName</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
